--- a/va_facility_data_2025-02-20/Columbia County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Columbia%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Columbia County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Columbia%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4d7ec8a54add49b2983b29dfff4ab357"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R44355ab50f854db9a4113cf1cb4a1016"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9547a5b3ef694c1f80997cf4cd7f9cc3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rec5e567db5c34cc2b6666cb88fca763f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra4131771253748afb7f38918c5c89668"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdf42b669ba714b0eb68f28be2bb65175"/>
   </x:sheets>
 </x:workbook>
 </file>
